--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H2">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I2">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J2">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>1009.573252795536</v>
+        <v>2.792795920164778</v>
       </c>
       <c r="R2">
-        <v>9086.159275159822</v>
+        <v>25.135163281483</v>
       </c>
       <c r="S2">
-        <v>0.3209675169871921</v>
+        <v>0.02891170987698144</v>
       </c>
       <c r="T2">
-        <v>0.3209675169871921</v>
+        <v>0.02891170987698144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H3">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I3">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J3">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>953.9508084410112</v>
+        <v>4.864134886587333</v>
       </c>
       <c r="R3">
-        <v>8585.557275969102</v>
+        <v>43.777213979286</v>
       </c>
       <c r="S3">
-        <v>0.3032838097338604</v>
+        <v>0.05035472002380311</v>
       </c>
       <c r="T3">
-        <v>0.3032838097338605</v>
+        <v>0.0503547200238031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>8.972916333333332</v>
+        <v>0.04575233333333333</v>
       </c>
       <c r="H4">
-        <v>26.918749</v>
+        <v>0.137257</v>
       </c>
       <c r="I4">
-        <v>0.9799598365254921</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="J4">
-        <v>0.9799598365254922</v>
+        <v>0.14147347546269</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>1118.847790770837</v>
+        <v>6.009038683288444</v>
       </c>
       <c r="R4">
-        <v>10069.63011693753</v>
+        <v>54.081348149596</v>
       </c>
       <c r="S4">
-        <v>0.3557085098044396</v>
+        <v>0.06220704556190546</v>
       </c>
       <c r="T4">
-        <v>0.3557085098044397</v>
+        <v>0.06220704556190546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.252242</v>
       </c>
       <c r="I5">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J5">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>9.460201008288001</v>
+        <v>5.13241895491089</v>
       </c>
       <c r="R5">
-        <v>85.141809074592</v>
+        <v>46.19177059419801</v>
       </c>
       <c r="S5">
-        <v>0.003007624478384316</v>
+        <v>0.05313206264736628</v>
       </c>
       <c r="T5">
-        <v>0.003007624478384315</v>
+        <v>0.05313206264736628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.252242</v>
       </c>
       <c r="I6">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J6">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>8.938991177590667</v>
@@ -818,10 +818,10 @@
         <v>80.450920598316</v>
       </c>
       <c r="S6">
-        <v>0.002841919389897667</v>
+        <v>0.09253863400951605</v>
       </c>
       <c r="T6">
-        <v>0.002841919389897667</v>
+        <v>0.09253863400951606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.252242</v>
       </c>
       <c r="I7">
-        <v>0.009182708642398771</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="J7">
-        <v>0.009182708642398769</v>
+        <v>0.2599907647526892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>10.48415750819689</v>
+        <v>11.04302101568622</v>
       </c>
       <c r="R7">
-        <v>94.35741757377201</v>
+        <v>99.38718914117601</v>
       </c>
       <c r="S7">
-        <v>0.003333164774116788</v>
+        <v>0.1143200680958068</v>
       </c>
       <c r="T7">
-        <v>0.003333164774116787</v>
+        <v>0.1143200680958068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H8">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I8">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J8">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>11.185556370144</v>
+        <v>11.81555922431589</v>
       </c>
       <c r="R8">
-        <v>100.670007331296</v>
+        <v>106.340033018843</v>
       </c>
       <c r="S8">
-        <v>0.003556156271279995</v>
+        <v>0.1223175735331057</v>
       </c>
       <c r="T8">
-        <v>0.003556156271279995</v>
+        <v>0.1223175735331057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H9">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I9">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J9">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>10.56928807554533</v>
+        <v>20.57883048760067</v>
       </c>
       <c r="R9">
-        <v>95.123592679908</v>
+        <v>185.209474388406</v>
       </c>
       <c r="S9">
-        <v>0.003360229820408257</v>
+        <v>0.2130371117951171</v>
       </c>
       <c r="T9">
-        <v>0.003360229820408258</v>
+        <v>0.2130371117951172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.09941533333333334</v>
+        <v>0.1935656666666667</v>
       </c>
       <c r="H10">
-        <v>0.298246</v>
+        <v>0.580697</v>
       </c>
       <c r="I10">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="J10">
-        <v>0.0108574548321091</v>
+        <v>0.5985357597846208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>12.39626247884845</v>
+        <v>25.42260676154622</v>
       </c>
       <c r="R10">
-        <v>111.566362309636</v>
+        <v>228.803460853916</v>
       </c>
       <c r="S10">
-        <v>0.003941068740420847</v>
+        <v>0.2631810744563979</v>
       </c>
       <c r="T10">
-        <v>0.003941068740420848</v>
+        <v>0.263181074456398</v>
       </c>
     </row>
   </sheetData>
